--- a/data_input/Species_Parameters.xlsx
+++ b/data_input/Species_Parameters.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t xml:space="preserve">Lname</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">AAlosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(0)</t>
   </si>
   <si>
     <t xml:space="preserve">AFallax</t>
@@ -337,10 +334,10 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.09"/>
   </cols>
@@ -410,7 +407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -432,11 +429,13 @@
       <c r="G2" s="1" t="n">
         <v>2.13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
+      <c r="H2" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>0.463636363636364</v>
@@ -475,9 +474,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.130645161290323</v>
@@ -497,11 +496,13 @@
       <c r="G3" s="1" t="n">
         <v>3.05</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
+      <c r="H3" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>0.41304347826087</v>
@@ -540,9 +541,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.336666666666667</v>
@@ -562,11 +563,13 @@
       <c r="G4" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
+      <c r="H4" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0.683125</v>
@@ -590,9 +593,9 @@
         <v>0.193423506391914</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.164285714285714</v>
@@ -612,11 +615,13 @@
       <c r="G5" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
+      <c r="H5" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>0.677777777777778</v>
@@ -640,9 +645,9 @@
         <v>2.36783953909335E-005</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.05625</v>
@@ -662,11 +667,13 @@
       <c r="G6" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
+      <c r="H6" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>0.481463414634146</v>
@@ -690,9 +697,9 @@
         <v>0.270047303569971</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.0863636363636364</v>
@@ -712,11 +719,13 @@
       <c r="G7" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
+      <c r="H7" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>0.82</v>
@@ -742,7 +751,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.251923076923077</v>
@@ -762,11 +771,13 @@
       <c r="G8" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
+      <c r="H8" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>0.4525</v>
@@ -788,9 +799,9 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0.0804878048780488</v>
@@ -810,11 +821,13 @@
       <c r="G9" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
+      <c r="H9" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>0.475757575757576</v>
@@ -838,9 +851,9 @@
         <v>0.00850638342311911</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0.623076923076923</v>
@@ -860,11 +873,13 @@
       <c r="G10" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
+      <c r="H10" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>0.6665</v>
@@ -888,9 +903,9 @@
         <v>0.135801930739829</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0.0583333333333333</v>
@@ -910,11 +925,13 @@
       <c r="G11" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>22</v>
+      <c r="H11" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>0.381333333333333</v>
@@ -938,9 +955,9 @@
         <v>0.00142800974083309</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0.205</v>
@@ -960,11 +977,13 @@
       <c r="G12" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
+      <c r="H12" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <f aca="false">EXP(0)</f>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>0.718181818181818</v>
@@ -1013,10 +1032,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="I2:I12 A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.36"/>
@@ -1025,16 +1044,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,13 +1061,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,13 +1075,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,13 +1089,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,13 +1103,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,13 +1131,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,13 +1145,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,13 +1159,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,13 +1173,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,13 +1187,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,13 +1201,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,13 +1215,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,13 +1229,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,13 +1243,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,13 +1257,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,13 +1271,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,13 +1285,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,13 +1299,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,13 +1313,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,13 +1327,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1336,10 +1355,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I2:I12 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
